--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -550,6 +550,21 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carlos Perez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>charlyy_p@prueba.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
